--- a/Blood_PCR_matrices.xlsx
+++ b/Blood_PCR_matrices.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS</t>
+          <t>PCR</t>
         </is>
       </c>
     </row>
